--- a/Content/Talent/Guidelines/RulesAndRegulations.xlsx
+++ b/Content/Talent/Guidelines/RulesAndRegulations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoemma/Documents/LittleMastersClub/LMCSite/CE /Website Contents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoemma/Documents/LittleMastersClub/LMCSite/CE /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2236B82C-78CC-0A48-981A-DEE0CD4EC983}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F511F7CE-ED0F-F744-9FBA-15159B254815}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" tabRatio="726" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="726" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chess" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <sheet name="ChineseBridge" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -61,30 +60,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>才艺竞赛旨在让参赛者展示各人的表演天赋和创造力。参赛者无须会说汉语。表演形式不限，譬如：舞蹈，乐器，扯鈴，功夫等皆可。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>表演可以以个人或小组方式进行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>，内容必须與中国民俗或文化相關。若表演内容大部份是以歌唱为主，我们建议参赛者报名歌唱比赛，若與語言有關，例如短劇，相聲，雙簧等請報名口语才艺竟赛。所有的演出时间以4分钟为限, 时间一到, 表演必须立刻停止。评审将就已演出的部分评分，並扣除總平均分數10分.</t>
-    </r>
-  </si>
-  <si>
-    <t>此项比赛要求所有参赛者在比赛当天在评审及观众前公开表演。表演中若需要音乐，参赛者须自备乐器或將音樂放置CD上并标明Track Number, 比赛前交给服务人员，CD在表演完後恕不退還。主办单位会提供钢琴。</t>
-  </si>
-  <si>
     <t xml:space="preserve">评审会根据各年龄组参赛者的表现，由团体组及个人组各选出前三名，并给予奖励。 </t>
   </si>
   <si>
@@ -92,9 +67,6 @@
   </si>
   <si>
     <t>歌唱比赛旨在让参赛者展示歌唱能力與文化融合詮釋. 我们非常鼓励参赛者以中文翻唱世界各地的民谣或流行歌曲. 此项比赛不要求中文流利程度, 参赛人数也无限制(一人或一人以上之团体都可报名); 但是, 不论是个人或团体，皆须使用中文演唱。 所有的演出时间以4分钟为限,时间一到,表演必须立刻停止。评审将就已演出的部分评分，並扣除總平均分數10分.</t>
-  </si>
-  <si>
-    <t>此项比赛要求所有参赛者在比赛当天在评审及观众前公开表演。表演中若需要音乐，参赛者须自备乐器或將音樂放置在CD上并标明Track Number, 比赛前交给服务人员，CD在表演完後恕不退還. 主办单位不会提供钢琴，也不提供 卡拉OK 机器及银幕. 请参赛自行熟记要表演的歌曲.</t>
   </si>
   <si>
     <t>评审会根据各年龄组参赛者的表现，由团体组及个人组各选出前三名，给予奖励。</t>
@@ -228,16 +200,10 @@
     <t>The talent show is a competition designed to showcase contestants’ performing talents and creativity.  Proficiency in Chinese language is not required.  The performance can be of any variety, such as dancing, musical instruments, Chinese yo-yo or kungfu, by an individual or by a team, with a theme or subject related to Chinese culture or folk art. If vocal singing is a major part of the performance, it is recommended to compete in the Chinese Singing category. If your performance will be in the form of short play, talk show, or crosstalk, we suggest you compete in the category of Language Arts.  All performance is timed and must not exceed 4 minutes. Performance will be stopped immediately when the time is up.  The judges will score on what has been performed and a reduction of 10 points will be applied.</t>
   </si>
   <si>
-    <t>The entries in each division will perform live on stage on competition day in front of a panel of judges.  If music is required, the participants can bring their own musical instruments, or CDs with the associated sound tracks clearly marked.  The CDs will not be returned after the performance.  A piano will be available on the stage for use.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Awards will be given to the top three performers of each division, individual and team, based on their stage performance in front of the judges.  </t>
   </si>
   <si>
     <t>Chinese Singing is a competition designed to showcase contestants’ singing talents with the culture immersion and interpretation.  The proficiency in Chinese language is not required; however, the vocal singing must be performed in Mandarin by an individual or by a team (there is no limit on the number of contestants that can be participated in a team).  We encourage contestants to sing any folk or popular songs from the world in Mandarin.  All performance is timed and must not exceed 4 minutes. Performance will be stopped immediately when the time is up.  The judges will score on what has been performed and deduct 10 points from the final score.</t>
-  </si>
-  <si>
-    <t>The entries in each division will perform live on stage on competition day in front of a panel of judges. If music is required, the participants can bring their own instruments, or CDs with the associated sound tracks clearly marked.  The CDs will not be returned after the performance.  A karaoke machine and screen will not be available for use, nor a piano. It is recommended the participants memorize the songs they will be performing.</t>
   </si>
   <si>
     <t xml:space="preserve">Awards will be given to the top three performers of each division, individual and group, based on their stage performance in front of the judges.  </t>
@@ -421,14 +387,6 @@
 • Level of difficulty: 20% </t>
   </si>
   <si>
-    <t>这个比赛是适合高年级学生。演讲比赛限时3分钟参赛者在比赛进行到2分30秒时会得到信号提示；参赛者必须在3分钟一到立即停止；超时会导致扣分。(每超10秒钟扣除總平均分數5 分，满分为100分)  
-评审会向A组的高中学生组提问1到2个关于演讲的问题。参赛者的回答会占据总分的30%。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This competition is for the older students, with the speech time limited to three minutes. The contestants will be signaled manually by a Timer at two minutes and thirty seconds. The speaker should stop at three minutes promptly. Any time overrun will result in point deductions (5 point out of max 100 points for every 10 seconds over.) 
-High school students in the Class A division will be asked one or two questions by the judges pertinent to the speeches delivered.  The response will be weighted as part of the “Content” scoring (30%). </t>
-  </si>
-  <si>
     <t>所有华盛顿州6-12年级的学生都可以报名参加演讲比赛。参赛者可以选择如下级别参加： 
 级别：  Class A (A级)   Class B (B级)     Class C (C级)
 年龄组:  Middle (Grade 6-8) 中学组    High (Grade 9-12) 高中组</t>
@@ -533,9 +491,6 @@
   </si>
   <si>
     <t>才藝競賽 - 比赛规则</t>
-  </si>
-  <si>
-    <t>歌唱比赛 - 比赛规则</t>
   </si>
   <si>
     <t>中國常識搶答 - 比赛规则</t>
@@ -718,9 +673,6 @@
 Please download the assigned poems from the CE website www.culturalexploration.org</t>
   </si>
   <si>
-    <t>「汉语桥」中国国情知识测验 （New）</t>
-  </si>
-  <si>
     <t>此项测验是特别为「汉语桥高中生中文比赛」资格赛所设立，比赛是以笔试的方式用汉语作答，内容旨在测试参赛者对中国国情、地理历史文化与汉语知识常识等全面性的了解。 
 比赛在当天早上进行。参赛者都将独自完成测试，不能互相讨论。笔试有45个问题，全部出自于第十二届汉语桥试题库。题库分为以下三大部分，每部分约出15个问题，限时45分钟作答完毕交卷。 
  一. 国情部分  
@@ -758,9 +710,6 @@
     <t xml:space="preserve">比赛在当天早上进行。参赛者都将独自完成测试，不能互相讨论。笔试有45个问题，限时45分钟作答完毕交卷。 </t>
   </si>
   <si>
-    <t xml:space="preserve">All About China test for the “Chinese Bridge” 「汉语桥」中国国情知识测验 （New） </t>
-  </si>
-  <si>
     <t>This test is particularly designed as a part of the “Chinese Bridge” qualifying tournament.  This written test, completely in Chinese, will gauge contestants’ knowledge of China’s national conditions, its history, geography, language, and culture.   
  The test will be held on the competition day.  Each contestant should work on the test independently.  No assistance from others or any reference to materials is allowed.  The test consists of 45 questions; all will be taken from the “12th Chinese Bridge Competition Test Database”.  The 45 questions will cover three areas listed below, with 15 questions in each area.  The test lasts 45 minutes.  
 1. China National Conditions 
@@ -798,6 +747,68 @@
   </si>
   <si>
     <t>  </t>
+  </si>
+  <si>
+    <t>中文歌唱比赛 - 比赛规则</t>
+  </si>
+  <si>
+    <t>The entries in each division will perform live on stage on competition day in front of a panel of judges.  If music is required, the participants can bring their own musical instruments (a piano will be available on the stage for use), or upload your music file before the March 4, 2019 registration deadline.  If the file is not received by the deadline, the contestant will be disqualified.  When upload the file, please follow the following format:
+http://www.littlemastersclub.org/music/talentshow , and this naming convention:
+TalentShow-&lt;GradeLevel&gt;-&lt;Team or Individual’s name&gt;-&lt;contact phone number&gt;. 
+For example, a high school division team contestant named Victory, their uploaded music file should be named:  TalentShow-HighSchool-Victory-425-123-4567.  A lower elementary division individual contestant named Cerina Sung, her file should be named: TalentShow-LowerElementary-CerinaSung-425-123-4567.  Should there be any questions, the event organizer will use the phone number contained in the file name to contact the contestant.  
+To avoid problems, contestants are strongly advised to bring your music file on CDs, with the associated sound tracks clearly marked.  Please give your CD to the organizer on site before competition.  The CD will not be returned after the performance.</t>
+  </si>
+  <si>
+    <r>
+      <t>才艺竞赛旨在让参赛者展示各人的表演天赋和创造力。参赛者无须会说汉语。表演形式不限，譬如：舞蹈，乐器，扯鈴，功夫等皆可。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表演可以以个人或小组方式进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>，内容必须與中国民俗或文化相關。若表演内容大部份是以歌唱为主，我们建议参赛者报名歌唱比赛，若與語言有關，例如短劇，相聲，雙簧等請報名口语才艺竟赛。所有的演出时间以4分钟为限, 时间一到, 表演必须立刻停止。评审将就已演出的部分评分，並扣除總平均分數10分.</t>
+    </r>
+  </si>
+  <si>
+    <t>此项比赛要求所有参赛者在比赛当天在评审及观众前公开表演。表演中若需要音乐，参赛者须自备乐器（主办单位会提供钢琴）或將音樂的电子档在比赛报名截止日（三月四日）之前上传至比赛网址 http://www.littlemastersclub.org/music/talentshow。沒有將音樂的电子档在比赛报名截止日（三月四日）之前上传至比赛网址的參賽者將被取消參賽資格。音乐的电子档请以下列方式命名：TalentShow-&lt;GradeLevel&gt;-&lt;Team or Individual’s name&gt;-&lt;contact phone number&gt;。
+举例来说：对一个参加高中组，队名叫Victory 的团体，他们上传的音乐档应该是 TalentShow-HighSchool-Victory-425-123-4567。如果是一位个人组名叫Cerina Sung的女孩报名参加小学低年级组，她的电子档的名称就必须是TalentShow-LowerElementary-CerinaSung-425-123-4567。如有疑问，主办单位会用电子档名中的联络电话与该队的负责人联络。
+为避免意外主办单位强力建议所有参赛者都再带一份电子档，放置在CD上并标明Track Number, 比赛前交给服务人员，CD在表演完後恕不退還。</t>
+  </si>
+  <si>
+    <t>此项比赛要求所有参赛者在比赛当天在评审及观众前公开表演。表演中若需要音乐，参赛者须自备乐器,或將音樂的电子档在比赛报名截止日（三月四日）之前上传至比赛网址 http://www.littlemastersclub.org/music/Singing。沒有將音樂的电子档在比赛报名截止日（三月四日）之前上传至比赛网址的參賽者將被取消參賽資格。 音乐的电子档请以下列方式命名：&lt;Singing&gt;-&lt;GradeLevel&gt;-&lt;Team or Individual’s name&gt;-&lt;contact phone number&gt;。
+举例来说：对一个参加高中组，队名叫Triumph的团体，他们上传的音乐档应该是 Singing-HighSchool-Triumph-425-123-4567。如果是一位个人组名叫Steve Mayor的男孩报名参加小学低年级组，他的电子档的名称就必须是Singing-LowerElementary-SteveMayor-425-123-4567。如有疑问，主办单位会用电子档名中的联络电话与该队的负责人联络。
+为避免意外主办单位强力建议所有参赛者都再带一份电子档，放置在CD上并标明Track Number, 比赛前交给服务人员，CD在表演完後恕不退還. 主办单位不会提供钢琴，也不提供 卡拉OK 机器及银幕. 请参赛者必要熟记要表演的歌曲.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The entries in each division will perform live on stage on competition day in front of a panel of judges. If music is required, the participants can bring their own instruments, or upload your music file before the March 4 2019 registration deadline.  If the file is not received by the deadline, the contestant will be disqualified.  When upload the file, please follow the following format:
+http://www.littlemastersclub.org/music/ChineseSinging, and this naming convention:
+Singing-&lt;GradeLevel&gt;-&lt;Team or Individual’s name&gt;-&lt;contact phone number&gt;.
+For example, a high school division team contestant named Triumph, their uploaded music file should be named:  Singing-HighSchool-Triumph-425-123-4567.  A lower elementary division individual contestant named Steve Mayor, his file should be named: Singing-LowerElementary-SteveMayor-425-123-4567.  Should there be any questions, the event organizer will use the phone number contained in the file name to contact the contestant.  
+To avoid problems, contestants are strongly advised to bring your music file on CDs, with the associated sound tracks clearly marked.  Please give your CD to the organizer on site before competition.  The CD will not be returned after the performance.  A karaoke machine and screen will not be available for use, nor a piano. It is recommended the participants memorize the songs they will be performing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">这个比赛是适合高年级学生。演讲比赛限时3分钟参赛者在比赛进行到2分30秒时会得到信号提示；参赛者必须在3分钟一到立即停止；超时会导致扣分。(每超10秒钟扣除總平均分數5 分，满分为100分)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This competition is for the older students, with the speech time limited to three minutes. The contestants will be signaled manually by a Timer at two minutes and thirty seconds. The speaker should stop at three minutes promptly. Any time overrun will result in point deductions (5 point out of max 100 points for every 10 seconds over.)  </t>
+  </si>
+  <si>
+    <t>「汉语桥」中国国情知识测验 （New）- 比赛规则</t>
+  </si>
+  <si>
+    <t>All About China test for the “Chinese Bridge”  - Rules and Regulations</t>
   </si>
 </sst>
 </file>
@@ -847,12 +858,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="9"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="SimSun"/>
     </font>
@@ -899,6 +904,14 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="9"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -966,14 +979,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -999,13 +1012,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1346,7 +1359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1358,30 +1371,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.2">
@@ -1389,15 +1402,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="78" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="320" x14ac:dyDescent="0.2">
@@ -1405,15 +1418,15 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="344" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1421,15 +1434,15 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1440,7 +1453,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3"/>
     </row>
@@ -1452,7 +1465,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3"/>
     </row>
@@ -1478,30 +1491,30 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="65" x14ac:dyDescent="0.2">
@@ -1509,16 +1522,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" ht="65" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="78" x14ac:dyDescent="0.2">
@@ -1526,15 +1539,15 @@
         <v>2</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="78" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1542,15 +1555,15 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="78" x14ac:dyDescent="0.2">
@@ -1558,15 +1571,15 @@
         <v>4</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="78" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1574,15 +1587,15 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1594,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E03623D-49ED-9A48-BFEB-F96AE977D872}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1607,30 +1620,30 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="91" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="104" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="65" x14ac:dyDescent="0.2">
@@ -1638,15 +1651,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="130" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1654,15 +1667,15 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -1670,16 +1683,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1687,15 +1700,15 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1703,20 +1716,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="21" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1742,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1740,30 +1753,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="65" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="78" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="65" x14ac:dyDescent="0.2">
@@ -1771,15 +1784,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="65" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="104" x14ac:dyDescent="0.2">
@@ -1787,15 +1800,15 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="117" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1803,15 +1816,15 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39" x14ac:dyDescent="0.2">
@@ -1819,15 +1832,15 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="39" x14ac:dyDescent="0.2">
@@ -1835,15 +1848,15 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="39" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1856,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1871,25 +1884,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="39" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="52" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="39" x14ac:dyDescent="0.2">
@@ -1897,15 +1910,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.2">
@@ -1913,15 +1926,15 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1929,15 +1942,15 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="52" x14ac:dyDescent="0.2">
@@ -1945,15 +1958,15 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="52" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1964,7 +1977,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3"/>
     </row>
@@ -1989,30 +2002,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="39" x14ac:dyDescent="0.2">
@@ -2020,15 +2033,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2039,7 +2052,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3"/>
     </row>
@@ -2048,15 +2061,15 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="52" x14ac:dyDescent="0.2">
@@ -2064,15 +2077,15 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="52" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2083,7 +2096,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3"/>
     </row>
@@ -2108,30 +2121,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="39" x14ac:dyDescent="0.2">
@@ -2139,15 +2152,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2155,15 +2168,15 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="52" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2171,15 +2184,15 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="52" x14ac:dyDescent="0.2">
@@ -2187,15 +2200,15 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="52" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2206,7 +2219,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3"/>
     </row>
@@ -2231,30 +2244,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="14" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="39" x14ac:dyDescent="0.2">
@@ -2262,15 +2275,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="91" x14ac:dyDescent="0.2">
@@ -2278,15 +2291,15 @@
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="78" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2294,15 +2307,15 @@
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="344" x14ac:dyDescent="0.2">
@@ -2310,15 +2323,15 @@
         <v>4</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2329,7 +2342,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" s="15"/>
     </row>
@@ -2342,8 +2355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2354,30 +2367,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="52" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="65" x14ac:dyDescent="0.2">
@@ -2385,31 +2398,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="65" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="117" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="39" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="156" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2417,15 +2430,15 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="52" x14ac:dyDescent="0.2">
@@ -2433,15 +2446,15 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="52" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2449,15 +2462,15 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2469,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A7" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
+      <selection activeCell="B8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2481,30 +2494,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="42" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="52" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="65" x14ac:dyDescent="0.2">
@@ -2512,31 +2525,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="65" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="104" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="156" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2544,15 +2557,15 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39" x14ac:dyDescent="0.2">
@@ -2560,15 +2573,15 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2576,15 +2589,15 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2596,7 +2609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2609,30 +2622,30 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="52" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="52" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="65" x14ac:dyDescent="0.2">
@@ -2640,15 +2653,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="65" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.2">
@@ -2656,15 +2669,15 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2672,16 +2685,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" x14ac:dyDescent="0.2">
@@ -2689,15 +2702,15 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2705,15 +2718,15 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Content/Talent/Guidelines/RulesAndRegulations.xlsx
+++ b/Content/Talent/Guidelines/RulesAndRegulations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyin7\Documents\2020Chinese Competition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guzhang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{505C73A8-E18D-4A07-8215-BE5AC94D7269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{338C036A-406A-451A-AB2C-6FD651164472}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B525C5F-AE9D-4128-BC41-A99306BE87A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="726" firstSheet="8" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="726" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chess" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="TeamPoetry" sheetId="10" r:id="rId10"/>
     <sheet name="ChineseBridge" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -418,9 +418,6 @@
   </si>
   <si>
     <t xml:space="preserve">每名参赛者需要朗诵两首诗：一首是指定诗（如下，三选一），另一首是自选诗。 自选诗歌可以选择任何形式：赞美诗，抒情诗，诗歌，韵诗，谜语，绕口令等等。 每首诗歌朗诵时间不超过3分钟；超时会扣分。 (每超10秒钟扣除总平均分数5 分, 满分为100分) 每名参赛者需要提供3份自选诗的复印件供评审评分时参考。  </t>
-  </si>
-  <si>
-    <t>Each contestant needs to recite three pieces: one assigned (please see below), and one self-selected. The self-selected piece can be in any of the following styles: chants, lyrics, poems, rhymes, riddles or tongue twisters, etc. Each piece must be limited to 3 minutes; and any time overrun will result in point deductions (5 point out of max 100 points for every 10 seconds over.) Also, each team needs to bring three paper copies of the self-selected poem for the judges to use during scoring.</t>
   </si>
   <si>
     <t xml:space="preserve">所有华盛顿州K-2年级的学生都可以报名参加个人诗歌朗诵比赛。 根据个人的语言熟练程度，参赛者可以选择如下级别中的一个参加： 
@@ -993,12 +990,15 @@
   <si>
     <t>  </t>
   </si>
+  <si>
+    <t>Each contestant needs to recite two pieces: one assigned (please see below), and one self-selected. The self-selected piece can be in any of the following styles: chants, lyrics, poems, rhymes, riddles or tongue twisters, etc. Each piece must be limited to 3 minutes; and any time overrun will result in point deductions (5 point out of max 100 points for every 10 seconds over.) Also, each team needs to bring three paper copies of the self-selected poem for the judges to use during scoring.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1534,13 +1534,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="134.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1548,13 +1548,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
@@ -1562,13 +1562,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="24">
+    <row r="4" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="63" customHeight="1">
+    <row r="5" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="72">
+    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="324">
+    <row r="7" spans="1:2" ht="324" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="408">
+    <row r="8" spans="1:2" ht="408" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -1616,19 +1616,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" ht="48">
+    <row r="13" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="72">
+    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1658,123 +1658,124 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="130.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="48">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="48">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="48" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="60">
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="72">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="84">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="84" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="72">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="96">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="96" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="48">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="72">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1786,129 +1787,130 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="128.42578125" customWidth="1"/>
     <col min="3" max="5" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="96">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="96" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="108">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="108" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="72">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="120">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="24">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24">
-      <c r="A12" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75">
-      <c r="B15" s="21" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1920,13 +1922,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="134.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1934,13 +1936,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="96">
+    <row r="3" spans="1:2" ht="96" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
@@ -1948,13 +1950,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="120">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="72">
+    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -1962,7 +1964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="60">
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
@@ -1970,7 +1972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="108">
+    <row r="7" spans="1:2" ht="108" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1978,7 +1980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="120">
+    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>31</v>
       </c>
@@ -1986,7 +1988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1994,7 +1996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="24">
+    <row r="10" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -2002,7 +2004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="36">
+    <row r="11" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
@@ -2010,7 +2012,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="36">
+    <row r="12" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
@@ -2018,7 +2020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="72">
+    <row r="13" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
@@ -2026,7 +2028,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="108">
+    <row r="14" spans="1:2" ht="108" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>38</v>
       </c>
@@ -2048,13 +2050,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="122.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>40</v>
       </c>
@@ -2062,25 +2064,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24">
+    <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="36">
+    <row r="4" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="108">
+    <row r="5" spans="1:2" ht="108" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -2088,7 +2090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="120">
+    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
@@ -2096,7 +2098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="24">
+    <row r="7" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2106,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="24">
+    <row r="8" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
@@ -2112,7 +2114,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -2120,7 +2122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -2128,7 +2130,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="48">
+    <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
@@ -2136,7 +2138,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="72">
+    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>53</v>
       </c>
@@ -2144,7 +2146,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="48">
+    <row r="13" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
@@ -2152,7 +2154,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="72">
+    <row r="14" spans="1:2" ht="84" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
@@ -2162,6 +2164,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2173,13 +2176,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="135.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2187,13 +2190,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="36">
+    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -2201,13 +2204,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="48">
+    <row r="4" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="96">
+    <row r="5" spans="1:2" ht="96" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="108">
+    <row r="6" spans="1:2" ht="108" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
@@ -2223,19 +2226,19 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="36">
+    <row r="11" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
@@ -2259,7 +2262,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="36">
+    <row r="12" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
@@ -2267,7 +2270,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="48">
+    <row r="13" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
@@ -2275,7 +2278,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="72">
+    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
@@ -2285,6 +2288,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2292,17 +2296,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="134.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2310,13 +2314,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24">
+    <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -2324,53 +2328,53 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="36">
+    <row r="4" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="96">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="96" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="108">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="108" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="42" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="24">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -2378,40 +2382,41 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="72">
+    <row r="11" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="48">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="48">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="72">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2423,111 +2428,111 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="136.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="24">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="48">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="36">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="168">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="168" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="264">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="264" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="409.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="409.5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
@@ -2535,6 +2540,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2542,126 +2548,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="135.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="36">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="72">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="60">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="216">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="216" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="228">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="228" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="36">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="72">
-      <c r="A12" s="13" t="s">
+      <c r="B12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="48">
+    </row>
+    <row r="13" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="72">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2673,118 +2680,118 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="135.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="48">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="72">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="60">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="132">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="132" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="168">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="168" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="48">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="48">
+    <row r="13" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="72">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2801,120 +2808,120 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="128.42578125" customWidth="1"/>
     <col min="3" max="5" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="48">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="72">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="72">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="60">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="24">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="24">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="24">
+    <row r="10" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="72">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="96" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="96">
-      <c r="A12" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="48">
+    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="72">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
